--- a/SubRES_TMPL/SubRES_New-IND.xlsx
+++ b/SubRES_TMPL/SubRES_New-IND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC43814-52AB-47DE-B17D-39D0B554661B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8A2219-1BF8-4112-9C2D-DD77CBFA915F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IND" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,13 +37,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
+    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -429,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="1" shapeId="0">
+    <comment ref="K12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -543,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0" shapeId="0">
+    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -616,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0" shapeId="0">
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -700,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q12" authorId="0" shapeId="0">
+    <comment ref="Q12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -753,7 +755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R12" authorId="0" shapeId="0">
+    <comment ref="R12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -791,7 +793,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1073,22 +1075,38 @@
   </si>
   <si>
     <t>ITIISIN</t>
+  </si>
+  <si>
+    <t>RSDHET</t>
+  </si>
+  <si>
+    <t>Residential heat from district heating network</t>
+  </si>
+  <si>
+    <t>SEASON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="208" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1269,168 +1287,186 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="11" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="11" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="11" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="208" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="3" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="3" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="208" fontId="6" fillId="3" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Comma 2 2" xfId="3"/>
-    <cellStyle name="Comma 3" xfId="4"/>
-    <cellStyle name="Hyperlink 2" xfId="5"/>
+    <cellStyle name="20% - Accent5 2" xfId="26" xr:uid="{5052736D-04B3-4862-87D4-3CCCB1D99041}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 2 3" xfId="27" xr:uid="{719ABCE6-67E4-4FD4-B1E9-08250D872BD1}"/>
+    <cellStyle name="Comma 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="6"/>
-    <cellStyle name="Normal 2" xfId="7"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 4" xfId="9"/>
-    <cellStyle name="Normal 4 2" xfId="10"/>
-    <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 8" xfId="12"/>
-    <cellStyle name="Normal 9 2" xfId="13"/>
-    <cellStyle name="Normale_B2020" xfId="14"/>
-    <cellStyle name="Percent 2" xfId="15"/>
-    <cellStyle name="Percent 3" xfId="16"/>
-    <cellStyle name="Percent 3 2" xfId="17"/>
-    <cellStyle name="Percent 3 3" xfId="18"/>
-    <cellStyle name="Percent 4" xfId="19"/>
-    <cellStyle name="Percent 4 2" xfId="20"/>
-    <cellStyle name="Percent 4 3" xfId="21"/>
-    <cellStyle name="Percent 5" xfId="22"/>
-    <cellStyle name="Percent 6" xfId="23"/>
-    <cellStyle name="Percent 7" xfId="24"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="25"/>
+    <cellStyle name="Normal 10" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 8" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8 2" xfId="28" xr:uid="{694B25C7-D26D-41C7-9EBC-BC2A495CD22D}"/>
+    <cellStyle name="Normal 9 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normale_B2020" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Percent 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Percent 2 2" xfId="29" xr:uid="{2698A5DB-EE8F-40A8-A97F-916917372449}"/>
+    <cellStyle name="Percent 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Percent 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 4 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 5" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 5 2" xfId="31" xr:uid="{3F8DF98A-4642-444F-B2D0-0A37C126A446}"/>
+    <cellStyle name="Percent 5 3" xfId="32" xr:uid="{518DE739-9404-4481-A297-9494C8BE85A2}"/>
+    <cellStyle name="Percent 5 4" xfId="30" xr:uid="{4AF61590-8C49-4009-8A3A-E3EB47476893}"/>
+    <cellStyle name="Percent 6" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 6 2" xfId="33" xr:uid="{E4E31A78-E1BC-45DF-9C4F-163FD1712C9F}"/>
+    <cellStyle name="Percent 7" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1900,11 +1936,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2439,9 +2475,22 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="K18" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="M18" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
@@ -2841,7 +2890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SubRES_TMPL/SubRES_New-IND.xlsx
+++ b/SubRES_TMPL/SubRES_New-IND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8A2219-1BF8-4112-9C2D-DD77CBFA915F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DA558A-EB22-47A8-AD3A-BCEE0B73F9ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="1155" windowWidth="20040" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IND" sheetId="5" r:id="rId1"/>
@@ -793,7 +793,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1075,15 +1075,6 @@
   </si>
   <si>
     <t>ITIISIN</t>
-  </si>
-  <si>
-    <t>RSDHET</t>
-  </si>
-  <si>
-    <t>Residential heat from district heating network</t>
-  </si>
-  <si>
-    <t>SEASON</t>
   </si>
 </sst>
 </file>
@@ -1939,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2475,22 +2466,12 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" s="63" t="s">
-        <v>56</v>
-      </c>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
       <c r="O18" s="63"/>
-      <c r="P18" s="63" t="s">
-        <v>96</v>
-      </c>
+      <c r="P18" s="63"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
